--- a/前期文档/项目企划书1.xlsx
+++ b/前期文档/项目企划书1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>中国区比赛项目计划书</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>团队新浪微博账号</t>
-  </si>
-  <si>
-    <t>@</t>
   </si>
   <si>
     <t>参赛项目</t>
@@ -76,75 +73,6 @@
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
-      <t>选手一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>选手二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>选手三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
       <t>选手四</t>
     </r>
     <r>
@@ -158,29 +86,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>导师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Imagine Cup 2016 微软“创新杯”全球学生科技大赛</t>
   </si>
   <si>
@@ -209,9 +114,6 @@
   </si>
   <si>
     <t>(如果参加了区域选拔赛，请填写所参赛的区域或校区；未参加区域选拔赛的团队请忽略此项)</t>
-  </si>
-  <si>
-    <t>世界公民 / 游戏 / 最佳创新 （请在三个比赛项目中选取一项）</t>
   </si>
   <si>
     <t>世界公民（World Citizenship）</t>
@@ -403,12 +305,153 @@
 </t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>Sensation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnapMemo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京大学（Nanjing University)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪安松(Anthony Ni）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>niansong1996@163.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省南京市栖霞区仙林大道163号学生宿舍1栋</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Team_Sensation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南京大学（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nanjing University)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钦</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大二</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>niansong1996@163.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队由三名大二的软件工程专业本科学生组成，倪安松主要负责团队管理，后端架构、部署和开发；吴嘉荣负责UWP（Universal Windows Platform)设备的开发；徐朱峰负责Android前端开发，视频短片制作。团队决策，计划由三人共同完成。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 灵感来源于一次短信通知，我顺手用截屏的方式将它保存了下来，然后打开备忘录将它记录下来，突然想到如果有一个软件（APP）能够帮我做到这件事，在截屏的时候自动帮我把要保存的信息提取出来，生成备忘录就好了。我们的项目idea便应运而生。
+b) 作品针对的用户是日程比较繁忙或者比较健忘的人群，如学生，上班族，老年人等。学生的特点是学习，活动比较繁忙，而且容易接受新潮的软件和功能；上班族的特点是工作繁忙，而且对于时间敏感度很高，记住工作安排对他们来说非常重要；老年人的特点是健忘，对软件易用性要求很高。
+c) 作品的使用场景可能是偶然在手机上或者电脑、平板上收到一条短信通知，收到一封邮件提醒；在浏览网页的时候看到一个好玩的故事；在QQ聊天的时候提到了一个安排等等，都可以用截屏，圈划的方式自动生成备忘录，而且能按时提醒。
+d) 市场上有各种各样的备忘软件，但是他们在都没有在根本上解决用户输入、操作困难的问题。而我们的作品不但解决了操作的问题，而且将简单易用的特点发挥到了极致，只需按下截屏按钮，圈划内容就可以完成操作。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪安松(Anthony Ni)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴嘉荣(Sissel Wu)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐朱峰(Alan Xu)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 该应用的后台计划采用Java语言实现，并通过REST架构进行和客户端的交互。由于Java的全平台兼容性，我们的服务端的机器可以是Azure也可以是阿里云等服务，甚至更基础的VPS，这使得我们的迁移成本大大减少。前后端的交互采取发送HTTP请求的方式。前端打算兼容多个平台，目前计划的完成优先顺序为 UWP，Android，网页端，iOS。
+b) 系统采用的开发环境：IDE是Visual Studio 2015 Community 和 Android Studio，运行环境是后端在Azure上，前端根据在各个兼容的平台上。
+c) 系统计划有多客户端根据同一账号进行同步功能，根据用户习惯和内容分析设置特色提醒。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +548,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -814,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -862,6 +918,69 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -895,9 +1014,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -922,64 +1038,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1202,7 @@
       <calculatedColumnFormula>中国区项目计划书!B18</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="学校名称2">
-      <calculatedColumnFormula>中国区项目计划书!C18</calculatedColumnFormula>
+      <calculatedColumnFormula>中国区项目计划书!#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="院系/年级2">
       <calculatedColumnFormula>中国区项目计划书!D18</calculatedColumnFormula>
@@ -1490,8 +1555,8 @@
   </sheetPr>
   <dimension ref="B1:L72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1506,618 +1571,684 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="53.25" customHeight="1">
-      <c r="B1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:12" ht="48" customHeight="1" thickBot="1">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1">
       <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1">
       <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:12" ht="17.25" thickBot="1">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1">
       <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1">
       <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="37">
+        <v>18795961065</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="2:12" ht="17.25" thickBot="1">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="2:12" ht="17.25" thickBot="1">
       <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="L10" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="17.25" thickBot="1">
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
       <c r="L11" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="17.25" customHeight="1" thickBot="1">
       <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
       <c r="L12" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="17.25" thickBot="1">
       <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B15" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="B15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="2:12" ht="17.25" thickBot="1">
       <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+    </row>
+    <row r="17" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B17" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="12">
+        <v>18795961065</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B18" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+    <row r="19" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B19" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1">
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+    <row r="21" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B21" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B22" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="B22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B23" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="B23" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="2:6" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B24" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="B24" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="2:6" ht="17.25" thickBot="1">
       <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B26" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" customHeight="1">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="2:6" ht="15" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" customHeight="1">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" customHeight="1">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="2:6" ht="15">
+      <c r="B32" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="2:6" ht="71.25" customHeight="1" thickBot="1">
+      <c r="B33" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="2:6" ht="15">
+      <c r="B39" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="2:6" ht="164.25" customHeight="1" thickBot="1">
+      <c r="B40" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="2:6" s="10" customFormat="1" ht="15">
+      <c r="B46" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+    </row>
+    <row r="47" spans="2:6" s="10" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
+      <c r="B47" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B26" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="2:6" ht="17.25" customHeight="1">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
-    </row>
-    <row r="32" spans="2:6" ht="15">
-      <c r="B32" s="39" t="s">
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="2:6" s="10" customFormat="1" ht="15">
+      <c r="B53" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+    </row>
+    <row r="54" spans="2:6" s="10" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
+      <c r="B54" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" spans="2:6" ht="71.25" customHeight="1" thickBot="1">
-      <c r="B33" s="41" t="s">
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="26"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="2:6" ht="15">
+      <c r="B60" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+    </row>
+    <row r="61" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B61" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="42"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
-    </row>
-    <row r="39" spans="2:6" ht="15">
-      <c r="B39" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-    </row>
-    <row r="40" spans="2:6" ht="164.25" customHeight="1" thickBot="1">
-      <c r="B40" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="42"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="45"/>
-    </row>
-    <row r="45" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-    </row>
-    <row r="46" spans="2:6" s="10" customFormat="1" ht="15">
-      <c r="B46" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-    </row>
-    <row r="47" spans="2:6" s="10" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B47" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="42"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="38"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="45"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="45"/>
-    </row>
-    <row r="52" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
-    </row>
-    <row r="53" spans="2:6" s="10" customFormat="1" ht="15">
-      <c r="B53" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-    </row>
-    <row r="54" spans="2:6" s="10" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
-      <c r="B54" s="41" t="s">
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="26"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+    </row>
+    <row r="66" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" spans="2:6" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B67" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="42"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="38"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="43"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="45"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="45"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
-    </row>
-    <row r="59" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="48"/>
-    </row>
-    <row r="60" spans="2:6" ht="15">
-      <c r="B60" s="39" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="2:6" ht="173.25" customHeight="1">
+      <c r="B68" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-    </row>
-    <row r="61" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B61" s="41" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="2:6" ht="342.75" customHeight="1" thickBot="1">
+      <c r="B69" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="2:6" ht="23.25" customHeight="1">
+      <c r="B70" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="42"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="38"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="45"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="43"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="45"/>
-    </row>
-    <row r="66" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="48"/>
-    </row>
-    <row r="67" spans="2:6" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B67" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
-    </row>
-    <row r="68" spans="2:6" ht="173.25" customHeight="1">
-      <c r="B68" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-    </row>
-    <row r="69" spans="2:6" ht="342.75" customHeight="1" thickBot="1">
-      <c r="B69" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-    </row>
-    <row r="70" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B70" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
     </row>
     <row r="71" spans="2:6" ht="21.75" customHeight="1">
-      <c r="B71" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
+      <c r="B71" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" spans="2:6" ht="27" customHeight="1" thickBot="1">
-      <c r="B72" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="B72" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F45"/>
+    <mergeCell ref="B27:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B68:F68"/>
@@ -2134,32 +2265,6 @@
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B34:F38"/>
     <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F45"/>
-    <mergeCell ref="B27:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -2167,9 +2272,14 @@
       <formula1>$L$10:$L$12</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2" display="niansong1996@"/>
+    <hyperlink ref="F17" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2215,143 +2325,143 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AD1" t="s">
         <v>63</v>
       </c>
-      <c r="P1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="AE1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AG1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AH1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>中国区项目计划书!C4</f>
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>Sensation</v>
+      </c>
+      <c r="B2" t="str">
         <f>中国区项目计划书!C5</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
+        <v>SnapMemo</v>
+      </c>
+      <c r="C2" t="str">
         <f>中国区项目计划书!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
+        <v>倪安松(Anthony Ni）</v>
+      </c>
+      <c r="D2" t="str">
         <f>中国区项目计划书!C7</f>
-        <v>0</v>
+        <v>南京大学（Nanjing University)</v>
       </c>
       <c r="E2">
         <f>中国区项目计划书!C8</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
+        <v>18795961065</v>
+      </c>
+      <c r="F2" t="str">
         <f>中国区项目计划书!C9</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <v>niansong1996@163.com</v>
+      </c>
+      <c r="G2" t="str">
         <f>中国区项目计划书!C10</f>
-        <v>0</v>
+        <v>江苏省南京市栖霞区仙林大道163号学生宿舍1栋</v>
       </c>
       <c r="H2" t="str">
         <f>中国区项目计划书!C11</f>
-        <v>@</v>
+        <v>@Team_Sensation</v>
       </c>
       <c r="I2" t="str">
         <f>中国区项目计划书!C12</f>
@@ -2359,39 +2469,39 @@
       </c>
       <c r="J2" t="str">
         <f>中国区项目计划书!C13</f>
-        <v>世界公民 / 游戏 / 最佳创新 （请在三个比赛项目中选取一项）</v>
+        <v>最佳创新（Innovation）</v>
       </c>
       <c r="K2" t="str">
         <f>中国区项目计划书!B17</f>
-        <v>&lt;选手一&gt;</v>
-      </c>
-      <c r="L2">
+        <v>倪安松(Anthony Ni)</v>
+      </c>
+      <c r="L2" t="str">
         <f>中国区项目计划书!C17</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
+        <v>南京大学（Nanjing University)</v>
+      </c>
+      <c r="M2" t="str">
         <f>中国区项目计划书!D17</f>
-        <v>0</v>
+        <v>软件学院 大二</v>
       </c>
       <c r="N2">
         <f>中国区项目计划书!E17</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
+        <v>18795961065</v>
+      </c>
+      <c r="O2" t="str">
         <f>中国区项目计划书!F17</f>
-        <v>0</v>
+        <v>niansong1996@163.com</v>
       </c>
       <c r="P2" t="str">
         <f>中国区项目计划书!B18</f>
-        <v>&lt;选手二&gt;</v>
-      </c>
-      <c r="Q2">
-        <f>中国区项目计划书!C18</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
+        <v>吴嘉荣(Sissel Wu)</v>
+      </c>
+      <c r="Q2" t="e">
+        <f>中国区项目计划书!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R2" t="str">
         <f>中国区项目计划书!D18</f>
-        <v>0</v>
+        <v>软件学院 大二</v>
       </c>
       <c r="S2">
         <f>中国区项目计划书!E18</f>
@@ -2403,15 +2513,15 @@
       </c>
       <c r="U2" t="str">
         <f>中国区项目计划书!B19</f>
-        <v>&lt;选手三&gt;</v>
-      </c>
-      <c r="V2">
+        <v>徐朱峰(Alan Xu)</v>
+      </c>
+      <c r="V2" t="str">
         <f>中国区项目计划书!C19</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
+        <v>南京大学（Nanjing University)</v>
+      </c>
+      <c r="W2" t="str">
         <f>中国区项目计划书!D19</f>
-        <v>0</v>
+        <v>软件学院 大二</v>
       </c>
       <c r="X2">
         <f>中国区项目计划书!E19</f>
@@ -2443,15 +2553,15 @@
       </c>
       <c r="AE2" t="str">
         <f>中国区项目计划书!B21</f>
-        <v>&lt;导师&gt;</v>
-      </c>
-      <c r="AF2">
+        <v>刘钦</v>
+      </c>
+      <c r="AF2" t="str">
         <f>中国区项目计划书!C21</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
+        <v>南京大学（Nanjing University)</v>
+      </c>
+      <c r="AG2" t="str">
         <f>中国区项目计划书!D21</f>
-        <v>0</v>
+        <v>软件学院</v>
       </c>
       <c r="AH2">
         <f>中国区项目计划书!E21</f>
